--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,31 @@
     <t>name</t>
   </si>
   <si>
-    <t>hell</t>
+    <t>crude</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>die</t>
@@ -64,22 +73,22 @@
     <t>fears</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>low</t>
@@ -88,7 +97,7 @@
     <t>cut</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
@@ -97,15 +106,12 @@
     <t>avoid</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>empty</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -145,55 +151,76 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -202,61 +229,61 @@
     <t>relief</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
     <t>shop</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -614,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9130434782608695</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -733,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.868421052631579</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.84</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8253424657534246</v>
+        <v>0.797945205479452</v>
       </c>
       <c r="C7">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D7">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,49 +960,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8">
+        <v>0.8375</v>
+      </c>
+      <c r="L8">
+        <v>134</v>
+      </c>
+      <c r="M8">
+        <v>134</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>26</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L8">
-        <v>49</v>
-      </c>
-      <c r="M8">
-        <v>49</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +1010,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7567567567567568</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.8303571428571429</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L9">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="M9">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7254901960784313</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.81875</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L10">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7241379310344828</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -1101,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8203125</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.8018867924528302</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6271186440677966</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6104651162790697</v>
+        <v>0.625</v>
       </c>
       <c r="C15">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5343915343915344</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C16">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D16">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5302013422818792</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="C17">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="D17">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4909090909090909</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L18">
         <v>28</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18">
-        <v>0.75</v>
-      </c>
-      <c r="L18">
-        <v>27</v>
-      </c>
       <c r="M18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4871794871794872</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4666666666666667</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.746031746031746</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4545454545454545</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.7209302325581395</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.6652719665271967</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L22">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1675,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3875</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.66</v>
+        <v>0.725</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1725,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3555555555555556</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3246753246753247</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.6441176470588236</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="L25">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M25">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,13 +1860,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2936507936507937</v>
+        <v>0.35</v>
       </c>
       <c r="C26">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1851,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.6307692307692307</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2117962466487936</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C27">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,31 +1928,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.6258503401360545</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L27">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1933,13 +1960,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1433333333333333</v>
+        <v>0.3134920634920635</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1951,19 +1978,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1975,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1983,37 +2010,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.07903780068728522</v>
+        <v>0.2332439678284182</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E29">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.5842696629213483</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L29">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="M29">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2025,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2033,37 +2060,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03716508210890233</v>
+        <v>0.14</v>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E30">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1114</v>
+        <v>258</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.62</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2075,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2083,49 +2110,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03337653920933247</v>
+        <v>0.08191126279863481</v>
       </c>
       <c r="C31">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>2983</v>
+        <v>269</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.5686274509803921</v>
+        <v>0.6143344709897611</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2133,37 +2160,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02552204176334107</v>
+        <v>0.03975799481417459</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E32">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="F32">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>840</v>
+        <v>1111</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2175,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2183,46 +2210,46 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02167766258246937</v>
+        <v>0.03762568926370419</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D33">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E33">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="F33">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2076</v>
+        <v>2967</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.5121951219512195</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>20</v>
@@ -2233,37 +2260,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008325328210054436</v>
+        <v>0.02784222737819025</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E34">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
       <c r="F34">
-        <v>0.25</v>
+        <v>0.83</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>3097</v>
+        <v>838</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.4657534246575342</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2275,21 +2302,45 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.02497643732327992</v>
+      </c>
+      <c r="C35">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <v>0.28</v>
+      </c>
+      <c r="F35">
+        <v>0.72</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2069</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.3974358974358974</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2301,47 +2352,71 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.01027287319422151</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>118</v>
+      </c>
+      <c r="E36">
+        <v>0.73</v>
+      </c>
+      <c r="F36">
+        <v>0.27</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>3083</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.2336448598130841</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.1135135135135135</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2353,21 +2428,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.09090909090909091</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L38">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2379,41 +2454,41 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>280</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.07710843373493977</v>
+        <v>0.390625</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>383</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.06920415224913495</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="L40">
         <v>20</v>
@@ -2431,137 +2506,319 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>269</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.0405616224648986</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
         <v>26</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>615</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.03</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>873</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.02456692913385827</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L43">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="N43">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3097</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.01001430615164521</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="L44">
         <v>21</v>
       </c>
       <c r="M44">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="N44">
-        <v>0.31</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2076</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.006990679094540613</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L45">
+        <v>32</v>
+      </c>
+      <c r="M45">
+        <v>34</v>
+      </c>
+      <c r="N45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K46">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>25</v>
+      </c>
+      <c r="N46">
+        <v>0.96</v>
+      </c>
+      <c r="O46">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47">
+        <v>0.08173076923076923</v>
+      </c>
+      <c r="L47">
+        <v>34</v>
+      </c>
+      <c r="M47">
+        <v>34</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48">
+        <v>0.02713789839065952</v>
+      </c>
+      <c r="L48">
+        <v>86</v>
+      </c>
+      <c r="M48">
+        <v>118</v>
+      </c>
+      <c r="N48">
+        <v>0.73</v>
+      </c>
+      <c r="O48">
+        <v>0.27</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49">
+        <v>0.0244988864142539</v>
+      </c>
+      <c r="L49">
+        <v>22</v>
+      </c>
+      <c r="M49">
+        <v>25</v>
+      </c>
+      <c r="N49">
+        <v>0.88</v>
+      </c>
+      <c r="O49">
+        <v>0.12</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50">
+        <v>0.02354260089686099</v>
+      </c>
+      <c r="L50">
         <v>21</v>
       </c>
-      <c r="M45">
-        <v>124</v>
-      </c>
-      <c r="N45">
+      <c r="M50">
+        <v>23</v>
+      </c>
+      <c r="N50">
+        <v>0.91</v>
+      </c>
+      <c r="O50">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51">
+        <v>0.01004784688995215</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>74</v>
+      </c>
+      <c r="N51">
+        <v>0.28</v>
+      </c>
+      <c r="O51">
+        <v>0.72</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52">
+        <v>0.00802407221664995</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>140</v>
+      </c>
+      <c r="N52">
         <v>0.17</v>
       </c>
-      <c r="O45">
+      <c r="O52">
         <v>0.83</v>
       </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>2983</v>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2967</v>
       </c>
     </row>
   </sheetData>
